--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -49,57 +49,57 @@
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
@@ -109,30 +109,27 @@
     <t>price</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -142,12 +139,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -157,12 +154,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -181,28 +178,31 @@
     <t>best</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -566,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
         <v>64</v>
@@ -635,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>0.9076923076923077</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -685,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>0.875</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -735,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7323943661971831</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>0.8064516129032258</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7150537634408602</v>
+        <v>0.703125</v>
       </c>
       <c r="C6">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.78125</v>
+        <v>0.71875</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6875</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>0.7169811320754716</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6756756756756757</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>0.5797101449275363</v>
+        <v>0.5796269727403156</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6545454545454545</v>
+        <v>0.6699029126213593</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>0.5609756097560976</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L9">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>306</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6218487394957983</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
-        <v>0.5186721991701245</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L10">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M10">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5922330097087378</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C11">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11">
-        <v>0.4811475409836066</v>
+        <v>0.4721311475409836</v>
       </c>
       <c r="L11">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="M11">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5101449275362319</v>
+        <v>0.5246376811594203</v>
       </c>
       <c r="C12">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D12">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>0.3669724770642202</v>
+        <v>0.382262996941896</v>
       </c>
       <c r="L12">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M12">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4578313253012048</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13">
-        <v>0.3554216867469879</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L13">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M13">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4170616113744076</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C14">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
         <v>0.3333333333333333</v>
@@ -1235,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3937007874015748</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15">
         <v>0.325</v>
@@ -1285,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3578947368421053</v>
+        <v>0.3984375</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.2587412587412588</v>
+        <v>0.234375</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.34375</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17">
-        <v>0.2578125</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1385,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3163265306122449</v>
+        <v>0.2722772277227723</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18">
-        <v>0.2311827956989247</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1435,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3118811881188119</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1453,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>0.1967871485943775</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>200</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2422680412371134</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>0.1709027169149868</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L20">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>946</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2071428571428572</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1553,31 +1553,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.1283422459893048</v>
+        <v>0.1747146619841967</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>201</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>326</v>
+        <v>940</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1585,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2065217391304348</v>
+        <v>0.215</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1603,31 +1603,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22">
-        <v>0.1001951854261549</v>
+        <v>0.1002785515320334</v>
       </c>
       <c r="L22">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1383</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1635,13 +1635,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.189873417721519</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1653,31 +1653,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23">
-        <v>0.08356545961002786</v>
+        <v>0.09946236559139784</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1685,13 +1685,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1795252225519288</v>
+        <v>0.185459940652819</v>
       </c>
       <c r="C24">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D24">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1703,31 +1703,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K24">
-        <v>0.0507343124165554</v>
+        <v>0.09935064935064936</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>711</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1735,25 +1735,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1666666666666667</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C25">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>290</v>
+        <v>288</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25">
+        <v>0.04933333333333333</v>
+      </c>
+      <c r="L25">
+        <v>37</v>
+      </c>
+      <c r="M25">
+        <v>39</v>
+      </c>
+      <c r="N25">
+        <v>0.95</v>
+      </c>
+      <c r="O25">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>713</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1761,13 +1785,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.165</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1779,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1787,13 +1811,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1588785046728972</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1805,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>180</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1813,25 +1837,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1475770925110132</v>
+        <v>0.1545253863134658</v>
       </c>
       <c r="C28">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1839,13 +1863,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.129746835443038</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1857,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>275</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1865,25 +1889,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1174089068825911</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1891,13 +1915,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1161048689138577</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1909,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>236</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1917,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.08928571428571429</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F32">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1943,25 +1967,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08791208791208792</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F33">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>332</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1969,51 +1993,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.07425742574257425</v>
+        <v>0.05216284987277354</v>
       </c>
       <c r="C34">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D34">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E34">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="F34">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.04615384615384616</v>
-      </c>
-      <c r="C35">
-        <v>36</v>
-      </c>
-      <c r="D35">
-        <v>50</v>
-      </c>
-      <c r="E35">
-        <v>0.28</v>
-      </c>
-      <c r="F35">
-        <v>0.72</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
